--- a/docs/export.xlsx
+++ b/docs/export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C3276B-ED8D-CD41-9FB1-EB02FF96556C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91EF7F6-5BC8-7D47-9A87-5D68D3408403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3640" yWindow="-14320" windowWidth="31600" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3640" yWindow="-18700" windowWidth="31600" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>index</t>
   </si>
@@ -508,881 +508,9 @@
     <t>O</t>
   </si>
   <si>
-    <t>1.워크쓰루 1~4단계
--우측 상단 skip 버튼
--하단 step 정보
--양옆 화살표(디자인이 있을 경우애)</t>
-  </si>
-  <si>
-    <t>1.워크쓰루 5단계
--좋아! 바로할게! 먼저 둘러보고 싶어! 클릭 관련 반영</t>
-  </si>
-  <si>
-    <r>
-      <t>1.해당 페이지 진입시 도시가스 선택하는 팝업이 오픈되야 함(페이지로 디자인 변경시 수정된 디자인으로 반영)
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"팝업"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 시트 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"4번"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 참고</t>
-    </r>
-  </si>
-  <si>
-    <t>1.동의관련 체크/언체크 관련 스타일
-2.버튼 활성화 / 비활성화</t>
-  </si>
-  <si>
     <t>13~17, 27</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.최상단 헤더(공통) : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13page(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">--&gt; layout/PHeader.js
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-좌측 백버튼
--중앙 타이틀
--우측 기타 버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.상단 3개 카드 영역 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13page(2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.혜택, 캐시 영역(캐시가 존재않을 경우) : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13page(3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-4.홈메뉴(6가지중 정해진 3개 나오는 영역) : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">14page(1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">5.운영사/파트너사 콘텐츠 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13page(4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">6.최하단 푸터(공통) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">---&gt; layout/PFooterMenu.js
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-16page(6~9) ---&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> layout/PFooterMenu.js
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">하단 메뉴중 "내 정보"에 미확인 알림유무 존재시 빨간 아이콘 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">27page(1d)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7.계약번호가 멀티일 경우(공통)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : 17page(1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.상단 3개 카드 영역 비회원일 경우 default 카드 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">13page(1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.상단 3개 카드 영역 정회원이지만 노출정보가 없는 경우 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">16page(0)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3.혜택, 캐시 영역(캐시가 존재하는 경우) : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>15page(6)</t>
-    </r>
-  </si>
-  <si>
-    <t>1.최상단 헤더
--타이틀 영역이 왼쪽 정렬임</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>배너영역</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.도시가스 선택시 관련 회사정보가 하단에 메뉴 형식으로 나오는 유형(select ---&gt; 하단메뉴 공통)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">26page(1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.캐시가 비회원인 경우와 준회원인 경우 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">26page(2)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3.좌측 상단에 사용자이름 영역부분에 비회원인 경우와 준회원인 경우 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>26page 좌측상단 [회원인증] 버튼, 27page(1a)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.알람이 없는 경우 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-  </si>
-  <si>
-    <t>1.회원 정보 변경, 회원탈퇴 목록</t>
-  </si>
-  <si>
-    <t>1.버튼활성화 / 비활성화
-2.청구서 수령 방식에서 "이메일 청구서" 선택시 이메일 input 창 나오는 디자인 존재</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.호칭변경 팝업 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"팝업"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 시트 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"7번"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 참고 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>32page (2a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2.청구서 수령 방식 선택 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"팝업"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 시트 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"7번"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 참고 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>33page (2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.헤더의 우측에 [관리] 버튼 클릭시 계약번호 왼쪽에 [X] 버튼이 나와야 함</t>
-    </r>
-  </si>
-  <si>
-    <t>1.동의관련 체크/언체크 관련 스타일</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(3) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[주소찾기] 클릭시 팝업 오픈 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"팝업"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 시트 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"9번" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>참고</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.달력 공통 : 작업 시작전에 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">얌댕에게 문의
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.달력에 이벤트 존재할때 active : 한건일 경우, 여러건일 경우</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>내역이 없을 경우
-2.내역이 존재할 경우</t>
-    </r>
-  </si>
-  <si>
-    <t>1.동의 체크/언체크 관련 스타일 반영</t>
-  </si>
-  <si>
-    <t>1.실패시 하단 버튼 바로 위에 있는 "계속 실패할 경우, 아래 버튼으로 문의해주세요" 문구에 대한 스타일 추가 반영</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.탭 활성화/비활성화
-2.아코디언 오픈상태/닫힌상태
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.스크롤 적용여부(공통)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-탭만 존재하는 경우
--계약번호만 존재하는 경우
--탭+계약번호 모두 존재하는 경우</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1a) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>내역이 없을 경우도 같이</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "사용계약번호를 입력해주세요" 클릭시 input 영역 나오게끔</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 비회원/준회원인 경우 input창 나오게끔
-2.조회전 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74 page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 조회후 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>78 page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 모두 반영</t>
-    </r>
-  </si>
-  <si>
-    <t>1.조회전/후 같이 반영</t>
-  </si>
-  <si>
-    <t>1.검침이력 있는 경우와 없는 경우 모두 다 반영</t>
-  </si>
-  <si>
     <t>한국전력 청구서 신청</t>
   </si>
   <si>
@@ -1390,16 +518,13 @@
   </si>
   <si>
     <t>완료여부</t>
-  </si>
-  <si>
-    <t>특이사항</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,33 +570,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1503,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1519,19 +617,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1815,38 +907,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H54"/>
+  <dimension ref="B2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="75">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:7" ht="75">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="154">
+      <c r="G2" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="42">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1865,11 +954,8 @@
       <c r="G3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="112">
+    </row>
+    <row r="4" spans="2:7" ht="42">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1886,11 +972,8 @@
         <v>10</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="210">
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1907,11 +990,8 @@
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="98">
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1928,11 +1008,8 @@
         <v>12</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="409.6">
+    </row>
+    <row r="7" spans="2:7" ht="70">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1946,14 +1023,11 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="280">
+    </row>
+    <row r="8" spans="2:7" ht="112">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1967,14 +1041,11 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="70">
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1991,15 +1062,12 @@
         <v>22</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2012,11 +1080,8 @@
         <v>23</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -2027,9 +1092,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="4"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" ht="409.6">
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -2046,11 +1110,8 @@
         <v>33</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -2067,11 +1128,8 @@
         <v>28</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -2088,11 +1146,8 @@
         <v>29</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="168">
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -2109,11 +1164,8 @@
         <v>29</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -2123,16 +1175,15 @@
       <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="4">
         <v>30</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8">
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -2149,9 +1200,8 @@
         <v>31</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" ht="306">
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -2168,11 +1218,8 @@
         <v>52</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -2189,9 +1236,8 @@
         <v>34</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8">
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -2208,9 +1254,8 @@
         <v>35</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8">
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -2227,11 +1272,8 @@
         <v>36</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -2248,9 +1290,8 @@
         <v>38</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8">
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -2260,16 +1301,15 @@
       <c r="D23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F23" s="4">
         <v>39</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8">
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -2286,9 +1326,8 @@
         <v>40</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8">
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2305,11 +1344,8 @@
         <v>42</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2326,9 +1362,8 @@
         <v>46</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" ht="168">
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2345,11 +1380,8 @@
         <v>47</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2366,9 +1398,8 @@
         <v>48</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8">
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2385,9 +1416,8 @@
         <v>49</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" ht="84">
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2404,11 +1434,8 @@
         <v>50</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="56">
+    </row>
+    <row r="31" spans="2:7" ht="56">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2425,9 +1452,8 @@
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" ht="56">
+    </row>
+    <row r="32" spans="2:7" ht="56">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2444,9 +1470,8 @@
         <v>51</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8">
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -2463,9 +1488,8 @@
         <v>53</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8">
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -2482,9 +1506,8 @@
         <v>58</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8">
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -2501,11 +1524,8 @@
         <v>60</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -2522,11 +1542,8 @@
         <v>62</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="266">
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -2543,11 +1560,8 @@
         <v>110</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -2564,9 +1578,8 @@
         <v>68</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8">
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -2583,11 +1596,8 @@
         <v>69</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -2604,11 +1614,8 @@
         <v>70</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -2625,9 +1632,8 @@
         <v>72</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:8" ht="140">
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -2644,11 +1650,8 @@
         <v>126</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -2665,11 +1668,8 @@
         <v>80</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -2686,9 +1686,8 @@
         <v>81</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="2:8">
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -2705,9 +1704,8 @@
         <v>82</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:8">
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -2724,11 +1722,8 @@
         <v>83</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -2745,9 +1740,8 @@
         <v>85</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8">
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -2764,9 +1758,8 @@
         <v>86</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8">
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -2783,9 +1776,8 @@
         <v>86</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8">
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>148</v>
@@ -2800,9 +1792,8 @@
         <v>87</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8">
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>151</v>
@@ -2817,9 +1808,8 @@
         <v>88</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8">
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>154</v>
@@ -2834,12 +1824,11 @@
         <v>90</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8">
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2847,12 +1836,11 @@
         <v>91</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8">
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2860,7 +1848,6 @@
         <v>93</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/export.xlsx
+++ b/docs/export.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\서울도시가스\scg-paas-server-prototype\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59E4FE-981D-2C43-BE18-0FB459EA13EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="-22140" windowWidth="31600" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="-22140" windowWidth="31605" windowHeight="18705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,9 +603,6 @@
     <t>/refunds/add</t>
   </si>
   <si>
-    <t>과오납 환출 신청 내역</t>
-  </si>
-  <si>
     <t>PRefundDetail.js</t>
   </si>
   <si>
@@ -1020,14 +1016,84 @@
   </si>
   <si>
     <t>/bills/summary2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과오납</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내역</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1150,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1416,20 +1489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="75">
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -1469,7 +1542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1487,7 +1560,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -1505,7 +1578,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -1523,7 +1596,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -1541,7 +1614,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -1559,7 +1632,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -1577,7 +1650,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -1595,7 +1668,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -1607,7 +1680,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -1625,7 +1698,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -1643,7 +1716,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -1661,7 +1734,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -1679,7 +1752,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>14</v>
       </c>
@@ -1697,7 +1770,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>15</v>
       </c>
@@ -1715,7 +1788,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>16</v>
       </c>
@@ -1733,7 +1806,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>17</v>
       </c>
@@ -1751,7 +1824,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>18</v>
       </c>
@@ -1769,7 +1842,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>19</v>
       </c>
@@ -1787,7 +1860,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>20</v>
       </c>
@@ -1805,7 +1878,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>21</v>
       </c>
@@ -1823,7 +1896,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>22</v>
       </c>
@@ -1841,7 +1914,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>23</v>
       </c>
@@ -1859,7 +1932,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>24</v>
       </c>
@@ -1877,7 +1950,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>25</v>
       </c>
@@ -1895,7 +1968,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>26</v>
       </c>
@@ -1913,7 +1986,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>27</v>
       </c>
@@ -1931,7 +2004,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>28</v>
       </c>
@@ -1949,7 +2022,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>29</v>
       </c>
@@ -1967,7 +2040,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>30</v>
       </c>
@@ -1985,7 +2058,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>31</v>
       </c>
@@ -2003,7 +2076,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>32</v>
       </c>
@@ -2021,7 +2094,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>33</v>
       </c>
@@ -2039,7 +2112,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>34</v>
       </c>
@@ -2057,7 +2130,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>35</v>
       </c>
@@ -2075,7 +2148,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>36</v>
       </c>
@@ -2093,7 +2166,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
         <v>37</v>
       </c>
@@ -2111,7 +2184,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="7">
         <v>38</v>
       </c>
@@ -2129,7 +2202,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="7">
         <v>39</v>
       </c>
@@ -2147,7 +2220,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>40</v>
       </c>
@@ -2165,7 +2238,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>41</v>
       </c>
@@ -2183,7 +2256,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>42</v>
       </c>
@@ -2201,7 +2274,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>43</v>
       </c>
@@ -2219,7 +2292,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>44</v>
       </c>
@@ -2237,7 +2310,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>45</v>
       </c>
@@ -2255,7 +2328,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>46</v>
       </c>
@@ -2273,7 +2346,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="7">
         <v>47</v>
       </c>
@@ -2291,7 +2364,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="7">
         <v>48</v>
       </c>
@@ -2309,7 +2382,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>49</v>
       </c>
@@ -2327,7 +2400,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <v>50</v>
       </c>
@@ -2345,7 +2418,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <v>51</v>
       </c>
@@ -2356,14 +2429,14 @@
         <v>163</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F53" s="3">
         <v>96</v>
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>52</v>
       </c>
@@ -2374,14 +2447,14 @@
         <v>165</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F54" s="3">
         <v>96</v>
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>53</v>
       </c>
@@ -2399,7 +2472,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <v>54</v>
       </c>
@@ -2417,7 +2490,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="7">
         <v>55</v>
       </c>
@@ -2435,7 +2508,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <v>56</v>
       </c>
@@ -2453,7 +2526,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <v>57</v>
       </c>
@@ -2471,7 +2544,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="7">
         <v>58</v>
       </c>
@@ -2489,7 +2562,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <v>59</v>
       </c>
@@ -2507,7 +2580,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <v>60</v>
       </c>
@@ -2525,756 +2598,756 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="7">
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="F63" s="3">
         <v>112</v>
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7">
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F64" s="3">
         <v>113</v>
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F65" s="3">
         <v>114</v>
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F66" s="3">
         <v>118</v>
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="7">
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F68" s="3">
         <v>121</v>
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="7">
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F70" s="3">
         <v>125</v>
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="7">
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="7">
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F73" s="3">
         <v>134</v>
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="7">
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="7">
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="F75" s="3">
         <v>137</v>
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="7">
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="F76" s="3">
         <v>138</v>
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="F77" s="3">
         <v>138</v>
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="F78" s="3">
         <v>139</v>
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="7">
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F79" s="3">
         <v>140</v>
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="7">
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="7">
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F81" s="3">
         <v>143</v>
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="7">
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="7">
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F83" s="3">
         <v>153</v>
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="7">
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F84" s="3">
         <v>153</v>
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="7">
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="F85" s="3">
         <v>154</v>
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="7">
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="7">
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="F87" s="3">
         <v>161</v>
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="7">
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="F88" s="3">
         <v>161</v>
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="7">
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F89" s="3">
         <v>162</v>
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="7">
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="F90" s="3">
         <v>163</v>
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="7">
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="7">
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="F92" s="3">
         <v>166</v>
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="7">
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="F93" s="3">
         <v>167</v>
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="7">
         <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F94" s="3">
         <v>168</v>
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="7">
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="F95" s="3">
         <v>172</v>
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="7">
         <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="7">
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="F97" s="3">
         <v>175</v>
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="7">
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="7">
         <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="F99" s="3">
         <v>177</v>
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="7">
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F100" s="3">
         <v>179</v>
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F101" s="3">
         <v>179</v>
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="7">
         <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="F102" s="3">
         <v>180</v>
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="7">
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="F103" s="3">
         <v>181</v>
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="7">
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="F104" s="3">
         <v>182</v>
@@ -3284,108 +3357,109 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://pwalkthrough1.js/" xr:uid="{B9CE4FEC-DA42-8741-99D4-DEF8EA1F5F8A}"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://pwalkthrough2.js/" xr:uid="{E4125AE5-1A9F-8445-8555-361BC6268AB1}"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://pselectcompany.js/" xr:uid="{AFAC10FF-E072-B448-9163-26E1D1F76528}"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://palreadymemberagree.js/" xr:uid="{6A01FBD4-830B-7941-9281-C1001C2F935B}"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://phome1.js/" xr:uid="{0AAEF6EC-2657-4244-9424-5949C9336299}"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://phome2.js/" xr:uid="{508248EF-936D-C34D-BDE7-E90224342E10}"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://psearch.js/" xr:uid="{19AFC61E-A864-7946-B4BE-1E6241C87F6D}"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://ptask.js/" xr:uid="{E1F01E02-3733-E44B-9833-4AEDF988726E}"/>
-    <hyperlink ref="D12" r:id="rId9" display="http://pmember.js/" xr:uid="{480767B2-C2B0-3443-825A-FD992F6EA7D1}"/>
-    <hyperlink ref="D13" r:id="rId10" display="http://ppushlist.js/" xr:uid="{5058F11B-F2C3-8A46-A95C-D09A69A051A2}"/>
-    <hyperlink ref="D14" r:id="rId11" display="http://paccount.js/" xr:uid="{5AE75350-CD7F-D242-A2A0-EAF1C602B4B2}"/>
-    <hyperlink ref="D15" r:id="rId12" display="http://pmemberdelete.js/" xr:uid="{A27BDD98-295B-3246-8A48-87BDEC3B812E}"/>
-    <hyperlink ref="D16" r:id="rId13" display="http://pprofile.js/" xr:uid="{86545E66-E315-F840-8E79-4C5E135BA358}"/>
-    <hyperlink ref="D17" r:id="rId14" display="http://pphone.js/" xr:uid="{FA2DDBE5-4DEF-6A40-86C3-8CB9B8DF3A4F}"/>
-    <hyperlink ref="D18" r:id="rId15" display="http://pcompany.js/" xr:uid="{0A2786D6-77F3-AB4B-9B2C-813D0B38B89F}"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://pcompanyadd.js/" xr:uid="{BFEF991D-852E-C641-8255-FAD95091A2E5}"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://pgasareaguide.js/" xr:uid="{14FC710D-33BE-2E49-B217-32BD7E6F0953}"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://pcontractnumberaddbymyinfo.js/" xr:uid="{7274B411-713A-0748-9E60-527070EC6436}"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://pcontractnumberaddcomplete.js/" xr:uid="{2D2D9B4C-977A-8E4D-9395-C8DDFCF44863}"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://pcontractnumberaddmethodselect.js/" xr:uid="{41BFA825-9C53-8240-A123-6856C19F4001}"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://pcontractnumberaddbybillinfo.js/" xr:uid="{0D819477-573E-3642-BDA3-C15528766016}"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://pcontractnumbersearch.js/" xr:uid="{53DDA403-04B8-3747-943A-9AF39C924018}"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://pcontractnumberaddbysearchaction.js/" xr:uid="{B828FAF3-B58A-7745-968E-D69B989A55FC}"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://pschedule.js/" xr:uid="{56CC1A23-0277-8A42-9BA3-BD7D116CB637}"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://psafecheck.js/" xr:uid="{D2E2DBC1-7F44-4342-81BC-FEBD1716C2A0}"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://pmeter.js/" xr:uid="{28672825-BB2E-A74B-8894-3121E6552F94}"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://pmyvoc.js/" xr:uid="{189EA539-C930-254F-95CE-87183C6306CF}"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://phanbill1.js/" xr:uid="{17473BFB-3365-E146-B14B-46CEBFFD8873}"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://phanbill2.js/" xr:uid="{B6711971-6E87-F84E-9033-10E2C9F9D362}"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://ppushsetting.js/" xr:uid="{954809C5-2F7A-DE49-A155-583A0A76A535}"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://pappinfo.js/" xr:uid="{49E82F06-183B-CA47-BCBA-477EB160F589}"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://pregistertermsagree.js/" xr:uid="{E207D97F-B8E8-0541-BDCB-6F576AFE60A9}"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://pciauthresult.js/" xr:uid="{E26AF521-7DF6-C940-BCE1-139CDB1A1AF4}"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://pbillsearch1.js/" xr:uid="{02DC8EFF-BEC6-684E-83AE-793B852C19DF}"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://pbillsearch2.js/" xr:uid="{49984932-9802-0F4F-8162-8F49C8B03C93}"/>
-    <hyperlink ref="D39" r:id="rId36" display="http://pbillsearch3.js/" xr:uid="{7EAA1D3A-8375-0743-92C0-72881507A1A5}"/>
-    <hyperlink ref="D40" r:id="rId37" display="http://psimplebillsearch1.js/" xr:uid="{15959DE2-4B16-6043-8F9F-18022128EAFF}"/>
-    <hyperlink ref="D41" r:id="rId38" display="http://psimplebillsearch2.js/" xr:uid="{BC8532F8-CBCC-B14D-BBE9-4AF1B57CB1E1}"/>
-    <hyperlink ref="D42" r:id="rId39" display="http://pchargerealtime.js/" xr:uid="{2AAB779B-D51C-1747-AD6E-E70BB8103B11}"/>
-    <hyperlink ref="D43" r:id="rId40" display="http://pchargeusage.js/" xr:uid="{600C9D78-D43B-2B40-A116-7A3080E3DE87}"/>
-    <hyperlink ref="D44" r:id="rId41" display="http://pindicattion1.js/" xr:uid="{83727283-6A36-7E42-B89A-A0E602C50CDF}"/>
-    <hyperlink ref="D45" r:id="rId42" display="http://pindicattionadd.js/" xr:uid="{403A3969-5E4E-C54D-91FE-E5776C707736}"/>
-    <hyperlink ref="D46" r:id="rId43" display="http://pindicattion2.js/" xr:uid="{B165019F-A47E-B94B-AD77-DD74DF04F646}"/>
-    <hyperlink ref="D47" r:id="rId44" display="http://pindicattion3.js/" xr:uid="{320FDE2F-2A13-C540-9D88-65F9784515CB}"/>
-    <hyperlink ref="D48" r:id="rId45" display="http://pcostlist.js/" xr:uid="{45DD6714-8C04-0141-87A9-0EBACC263DDB}"/>
-    <hyperlink ref="D49" r:id="rId46" display="http://pcostdetail.js/" xr:uid="{47F257C1-8012-1644-A618-0CFDD72CA020}"/>
-    <hyperlink ref="D50" r:id="rId47" display="http://pbillsendmethod.js/" xr:uid="{FF30B661-5E0F-1140-A9CA-A163A869A33F}"/>
-    <hyperlink ref="D51" r:id="rId48" display="http://pbillsendmethodedit.js/" xr:uid="{E6FB5686-4C61-2240-B75D-EAD271FFFD8B}"/>
-    <hyperlink ref="D52" r:id="rId49" display="http://phanbilladd.js/" xr:uid="{0069DA29-B9A8-E740-9153-552D25CE891F}"/>
-    <hyperlink ref="D53" r:id="rId50" display="http://pbillssummary1.js/" xr:uid="{CC068610-4E02-534F-9B27-C94B6E04093E}"/>
-    <hyperlink ref="D54" r:id="rId51" display="http://pbillssummary2.js/" xr:uid="{DCA93B09-CCE5-BD45-B4A3-BD399103E5E2}"/>
-    <hyperlink ref="D55" r:id="rId52" display="http://ppay.js/" xr:uid="{696531D2-1561-9140-8BAC-8CE044889487}"/>
-    <hyperlink ref="D56" r:id="rId53" display="http://ppayresult.js/" xr:uid="{0C6E1548-27CA-4945-8ED7-BFDF16B3240E}"/>
-    <hyperlink ref="D57" r:id="rId54" display="http://ppayrealtime.js/" xr:uid="{288ABBC2-B4FB-BF47-90BC-929A0BCC076C}"/>
-    <hyperlink ref="D58" r:id="rId55" display="http://pdirectdebit.js/" xr:uid="{A3B55B8E-A720-A44E-B6BF-405A952A7D4E}"/>
-    <hyperlink ref="D59" r:id="rId56" display="http://pdirectdebitadd.js/" xr:uid="{9A75BDA4-48C5-A243-8DB4-ED7493B5905F}"/>
-    <hyperlink ref="D60" r:id="rId57" display="http://pdirectdebitcancel.js/" xr:uid="{31EFE8DD-D2A2-F349-B908-E6330005F264}"/>
-    <hyperlink ref="D61" r:id="rId58" display="http://prefund.js/" xr:uid="{CF27933B-B9DF-6A4C-B8B3-B67947648BD6}"/>
-    <hyperlink ref="D62" r:id="rId59" display="http://prefundadd.js/" xr:uid="{49513794-7986-C446-B3B8-457B3306744B}"/>
-    <hyperlink ref="D63" r:id="rId60" display="http://prefunddetail.js/" xr:uid="{7EC5DA02-0EBB-0F4F-92A2-FC3D24794ABB}"/>
-    <hyperlink ref="D64" r:id="rId61" display="http://ppromise.js/" xr:uid="{82FEBB0E-2F64-E74E-87DA-878B12151525}"/>
-    <hyperlink ref="D65" r:id="rId62" display="http://ppromiseadd.js/" xr:uid="{26BA6E91-3C51-C74B-8137-8B59EFF0DF96}"/>
-    <hyperlink ref="D66" r:id="rId63" display="http://ppromisedetail.js/" xr:uid="{F0AB9C75-17B0-8E49-9815-83FF9807E9CB}"/>
-    <hyperlink ref="D67" r:id="rId64" display="http://pweakdiscount.js/" xr:uid="{7AA486A5-66DC-1549-9F09-175E2347FB49}"/>
-    <hyperlink ref="D68" r:id="rId65" display="http://pweakdiscountadd.js/" xr:uid="{29D0EAA1-3137-CF44-ACDB-9B50EA977AE1}"/>
-    <hyperlink ref="D69" r:id="rId66" display="http://preservationmove.js/" xr:uid="{A40F5CEC-3B61-FA46-B6F1-5D5294FBCCFD}"/>
-    <hyperlink ref="D70" r:id="rId67" display="http://preservation.js/" xr:uid="{D8074513-80AA-3F46-906F-FA738D94EE7B}"/>
-    <hyperlink ref="D71" r:id="rId68" display="http://preservationadd.js/" xr:uid="{1DE1F4C5-101D-D840-9027-06A31F9784FA}"/>
-    <hyperlink ref="D72" r:id="rId69" display="http://preservationdetail.js/" xr:uid="{CAC26868-7AE1-ED47-A519-92668E3231AB}"/>
-    <hyperlink ref="D73" r:id="rId70" display="http://pciauthbycashevent.js/" xr:uid="{BE912B18-BCFC-174F-A072-6A85B32817EE}"/>
-    <hyperlink ref="D74" r:id="rId71" display="http://pcash1.js/" xr:uid="{22D7B164-1036-4849-8AF5-08CA0E8BC4ED}"/>
-    <hyperlink ref="D75" r:id="rId72" display="http://pcashmore.js/" xr:uid="{6BF9C35C-2D1F-B447-B899-F7EBA96B603D}"/>
-    <hyperlink ref="D76" r:id="rId73" display="http://pcash2.js/" xr:uid="{E0099859-2D03-7A4A-869B-97163C60F9F2}"/>
-    <hyperlink ref="D77" r:id="rId74" display="http://pcash3.js/" xr:uid="{9C909BE0-3886-1F45-9597-377C96E5FD1B}"/>
-    <hyperlink ref="D78" r:id="rId75" display="http://poutcomeorder.js/" xr:uid="{3075696C-970E-674D-8055-C0E0BDB359F7}"/>
-    <hyperlink ref="D79" r:id="rId76" display="http://pcashgift.js/" xr:uid="{5BDC09D6-84FE-C64E-BCA1-251216B735F6}"/>
-    <hyperlink ref="D80" r:id="rId77" display="http://pcashout.js/" xr:uid="{10A4FE07-7D7B-7046-8F0B-3AF28BDFE940}"/>
-    <hyperlink ref="D81" r:id="rId78" display="http://pcashpromotion.js/" xr:uid="{BF381711-4AC3-C347-A100-1E8505D14AD5}"/>
-    <hyperlink ref="D82" r:id="rId79" display="http://pcashpromotiondetail.js/" xr:uid="{10396519-EFFA-0845-8D40-78D4655C48E1}"/>
-    <hyperlink ref="D83" r:id="rId80" display="http://plifesectionlist.js/" xr:uid="{EAB4624C-C10F-814F-ACF4-62442FC9DDF6}"/>
-    <hyperlink ref="D84" r:id="rId81" display="http://plifesectiondetail.js/" xr:uid="{DA2B0E48-80B2-B347-B109-3DEA0AFFBF21}"/>
-    <hyperlink ref="D85" r:id="rId82" display="http://pinfolist.js/" xr:uid="{1806D8C5-F938-9C42-A589-74DE6A25038D}"/>
-    <hyperlink ref="D86" r:id="rId83" display="http://pinfodetail.js/" xr:uid="{01DB2854-C184-BE44-BE1D-3DE8A9BB9EC7}"/>
-    <hyperlink ref="D87" r:id="rId84" display="http://pfaqlist.js/" xr:uid="{D6E39154-8843-6449-9C02-5288039C4ED3}"/>
-    <hyperlink ref="D88" r:id="rId85" display="http://pfaqdetail.js/" xr:uid="{A6B32FF5-0761-F247-B7D9-8703521F2C77}"/>
-    <hyperlink ref="D89" r:id="rId86" display="http://preportgassmell.js/" xr:uid="{FBDA4275-5494-1741-9E40-504277F83512}"/>
-    <hyperlink ref="D90" r:id="rId87" display="http://preportforkcrane.js/" xr:uid="{464321FB-6F2E-2C46-B8A2-F1B17A903594}"/>
-    <hyperlink ref="D91" r:id="rId88" display="http://pcenterareasearch.js/" xr:uid="{75997CF7-2BBA-2D45-95BB-4635C7A9F286}"/>
-    <hyperlink ref="D92" r:id="rId89" display="http://pnationwideareasearch.js/" xr:uid="{6331DD9A-45D7-9246-B81F-0DA9F04F2703}"/>
-    <hyperlink ref="D93" r:id="rId90" display="http://pstophold.js/" xr:uid="{394016B4-28E8-2348-93C8-D8898E9FDE7B}"/>
-    <hyperlink ref="D94" r:id="rId91" display="http://pstopholdadd.js/" xr:uid="{157BBD51-D659-7F41-AF22-21AA43F46B25}"/>
-    <hyperlink ref="D95" r:id="rId92" display="http://pstopholddetail.js/" xr:uid="{E3387098-4CC6-4247-90BA-6ED359A7D23D}"/>
-    <hyperlink ref="D96" r:id="rId93" display="http://pinsurance.js/" xr:uid="{BF1D70A2-2044-7A40-AFD7-7AD723965233}"/>
-    <hyperlink ref="D97" r:id="rId94" display="http://pvoc.js/" xr:uid="{51B66EE6-E13F-DA4F-ADAC-42825ABB1AD4}"/>
-    <hyperlink ref="D98" r:id="rId95" display="http://pvocadd.js/" xr:uid="{F5CC835E-E00E-2044-A0AB-32387BAA7FA8}"/>
-    <hyperlink ref="D99" r:id="rId96" display="http://pvocdetail.js/" xr:uid="{A0A50B56-41B1-E248-9043-5F9E1E9DECD2}"/>
-    <hyperlink ref="D100" r:id="rId97" display="http://pnoticelist.js/" xr:uid="{FEF3CC63-6BBD-4642-9A90-4D031BED58F6}"/>
-    <hyperlink ref="D101" r:id="rId98" display="http://pnoticedetail.js/" xr:uid="{4CC1B222-01F6-854D-9048-10CE3E04740C}"/>
-    <hyperlink ref="D102" r:id="rId99" display="http://puseagreelist.js/" xr:uid="{73ADB64D-9D32-E445-8D33-1C90DBD10514}"/>
-    <hyperlink ref="D103" r:id="rId100" display="http://puseagreedetail.js/" xr:uid="{E65468E1-629A-3241-B6C2-31249EA1D6B2}"/>
-    <hyperlink ref="D104" r:id="rId101" display="http://pmarketingacceptance.js/" xr:uid="{462B1B87-7EE1-024A-994F-5DF93581CD61}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://pwalkthrough1.js/"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://pwalkthrough2.js/"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://pselectcompany.js/"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://palreadymemberagree.js/"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://phome1.js/"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://phome2.js/"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://psearch.js/"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://ptask.js/"/>
+    <hyperlink ref="D12" r:id="rId9" display="http://pmember.js/"/>
+    <hyperlink ref="D13" r:id="rId10" display="http://ppushlist.js/"/>
+    <hyperlink ref="D14" r:id="rId11" display="http://paccount.js/"/>
+    <hyperlink ref="D15" r:id="rId12" display="http://pmemberdelete.js/"/>
+    <hyperlink ref="D16" r:id="rId13" display="http://pprofile.js/"/>
+    <hyperlink ref="D17" r:id="rId14" display="http://pphone.js/"/>
+    <hyperlink ref="D18" r:id="rId15" display="http://pcompany.js/"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://pcompanyadd.js/"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://pgasareaguide.js/"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://pcontractnumberaddbymyinfo.js/"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://pcontractnumberaddcomplete.js/"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://pcontractnumberaddmethodselect.js/"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://pcontractnumberaddbybillinfo.js/"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://pcontractnumbersearch.js/"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://pcontractnumberaddbysearchaction.js/"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://pschedule.js/"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://psafecheck.js/"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://pmeter.js/"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://pmyvoc.js/"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://phanbill1.js/"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://phanbill2.js/"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://ppushsetting.js/"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://pappinfo.js/"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://pregistertermsagree.js/"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://pciauthresult.js/"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://pbillsearch1.js/"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://pbillsearch2.js/"/>
+    <hyperlink ref="D39" r:id="rId36" display="http://pbillsearch3.js/"/>
+    <hyperlink ref="D40" r:id="rId37" display="http://psimplebillsearch1.js/"/>
+    <hyperlink ref="D41" r:id="rId38" display="http://psimplebillsearch2.js/"/>
+    <hyperlink ref="D42" r:id="rId39" display="http://pchargerealtime.js/"/>
+    <hyperlink ref="D43" r:id="rId40" display="http://pchargeusage.js/"/>
+    <hyperlink ref="D44" r:id="rId41" display="http://pindicattion1.js/"/>
+    <hyperlink ref="D45" r:id="rId42" display="http://pindicattionadd.js/"/>
+    <hyperlink ref="D46" r:id="rId43" display="http://pindicattion2.js/"/>
+    <hyperlink ref="D47" r:id="rId44" display="http://pindicattion3.js/"/>
+    <hyperlink ref="D48" r:id="rId45" display="http://pcostlist.js/"/>
+    <hyperlink ref="D49" r:id="rId46" display="http://pcostdetail.js/"/>
+    <hyperlink ref="D50" r:id="rId47" display="http://pbillsendmethod.js/"/>
+    <hyperlink ref="D51" r:id="rId48" display="http://pbillsendmethodedit.js/"/>
+    <hyperlink ref="D52" r:id="rId49" display="http://phanbilladd.js/"/>
+    <hyperlink ref="D53" r:id="rId50" display="http://pbillssummary1.js/"/>
+    <hyperlink ref="D54" r:id="rId51" display="http://pbillssummary2.js/"/>
+    <hyperlink ref="D55" r:id="rId52" display="http://ppay.js/"/>
+    <hyperlink ref="D56" r:id="rId53" display="http://ppayresult.js/"/>
+    <hyperlink ref="D57" r:id="rId54" display="http://ppayrealtime.js/"/>
+    <hyperlink ref="D58" r:id="rId55" display="http://pdirectdebit.js/"/>
+    <hyperlink ref="D59" r:id="rId56" display="http://pdirectdebitadd.js/"/>
+    <hyperlink ref="D60" r:id="rId57" display="http://pdirectdebitcancel.js/"/>
+    <hyperlink ref="D61" r:id="rId58" display="http://prefund.js/"/>
+    <hyperlink ref="D62" r:id="rId59" display="http://prefundadd.js/"/>
+    <hyperlink ref="D63" r:id="rId60" display="http://prefunddetail.js/"/>
+    <hyperlink ref="D64" r:id="rId61" display="http://ppromise.js/"/>
+    <hyperlink ref="D65" r:id="rId62" display="http://ppromiseadd.js/"/>
+    <hyperlink ref="D66" r:id="rId63" display="http://ppromisedetail.js/"/>
+    <hyperlink ref="D67" r:id="rId64" display="http://pweakdiscount.js/"/>
+    <hyperlink ref="D68" r:id="rId65" display="http://pweakdiscountadd.js/"/>
+    <hyperlink ref="D69" r:id="rId66" display="http://preservationmove.js/"/>
+    <hyperlink ref="D70" r:id="rId67" display="http://preservation.js/"/>
+    <hyperlink ref="D71" r:id="rId68" display="http://preservationadd.js/"/>
+    <hyperlink ref="D72" r:id="rId69" display="http://preservationdetail.js/"/>
+    <hyperlink ref="D73" r:id="rId70" display="http://pciauthbycashevent.js/"/>
+    <hyperlink ref="D74" r:id="rId71" display="http://pcash1.js/"/>
+    <hyperlink ref="D75" r:id="rId72" display="http://pcashmore.js/"/>
+    <hyperlink ref="D76" r:id="rId73" display="http://pcash2.js/"/>
+    <hyperlink ref="D77" r:id="rId74" display="http://pcash3.js/"/>
+    <hyperlink ref="D78" r:id="rId75" display="http://poutcomeorder.js/"/>
+    <hyperlink ref="D79" r:id="rId76" display="http://pcashgift.js/"/>
+    <hyperlink ref="D80" r:id="rId77" display="http://pcashout.js/"/>
+    <hyperlink ref="D81" r:id="rId78" display="http://pcashpromotion.js/"/>
+    <hyperlink ref="D82" r:id="rId79" display="http://pcashpromotiondetail.js/"/>
+    <hyperlink ref="D83" r:id="rId80" display="http://plifesectionlist.js/"/>
+    <hyperlink ref="D84" r:id="rId81" display="http://plifesectiondetail.js/"/>
+    <hyperlink ref="D85" r:id="rId82" display="http://pinfolist.js/"/>
+    <hyperlink ref="D86" r:id="rId83" display="http://pinfodetail.js/"/>
+    <hyperlink ref="D87" r:id="rId84" display="http://pfaqlist.js/"/>
+    <hyperlink ref="D88" r:id="rId85" display="http://pfaqdetail.js/"/>
+    <hyperlink ref="D89" r:id="rId86" display="http://preportgassmell.js/"/>
+    <hyperlink ref="D90" r:id="rId87" display="http://preportforkcrane.js/"/>
+    <hyperlink ref="D91" r:id="rId88" display="http://pcenterareasearch.js/"/>
+    <hyperlink ref="D92" r:id="rId89" display="http://pnationwideareasearch.js/"/>
+    <hyperlink ref="D93" r:id="rId90" display="http://pstophold.js/"/>
+    <hyperlink ref="D94" r:id="rId91" display="http://pstopholdadd.js/"/>
+    <hyperlink ref="D95" r:id="rId92" display="http://pstopholddetail.js/"/>
+    <hyperlink ref="D96" r:id="rId93" display="http://pinsurance.js/"/>
+    <hyperlink ref="D97" r:id="rId94" display="http://pvoc.js/"/>
+    <hyperlink ref="D98" r:id="rId95" display="http://pvocadd.js/"/>
+    <hyperlink ref="D99" r:id="rId96" display="http://pvocdetail.js/"/>
+    <hyperlink ref="D100" r:id="rId97" display="http://pnoticelist.js/"/>
+    <hyperlink ref="D101" r:id="rId98" display="http://pnoticedetail.js/"/>
+    <hyperlink ref="D102" r:id="rId99" display="http://puseagreelist.js/"/>
+    <hyperlink ref="D103" r:id="rId100" display="http://puseagreedetail.js/"/>
+    <hyperlink ref="D104" r:id="rId101" display="http://pmarketingacceptance.js/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId102"/>
 </worksheet>
 </file>